--- a/load_dist.xlsx
+++ b/load_dist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec99b48d946fe934/Documents/GitHub/Strutural-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3808A07-E247-40C3-8014-195298962FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D3808A07-E247-40C3-8014-195298962FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC990B9B-8335-472F-B534-1C1ED1FA77ED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{A1D252CF-D648-4D8B-BCC6-D6FC51581605}"/>
   </bookViews>
@@ -34,20 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,132 +384,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A742AA-1889-438C-A6E4-C92253FC7815}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>-3.6</v>
+      </c>
+      <c r="B1">
+        <v>33.6</v>
+      </c>
+      <c r="C1">
+        <v>25.96</v>
+      </c>
+      <c r="D1">
+        <v>32.5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-3.6</v>
+        <v>33.6</v>
       </c>
       <c r="B2">
-        <v>33.6</v>
+        <v>62.4</v>
       </c>
       <c r="C2">
-        <v>25.96</v>
+        <v>29.51</v>
       </c>
       <c r="D2">
-        <v>32.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>33.6</v>
+        <v>62.4</v>
       </c>
       <c r="B3">
-        <v>62.4</v>
+        <v>122.4</v>
       </c>
       <c r="C3">
-        <v>29.51</v>
+        <v>31.342669999999998</v>
       </c>
       <c r="D3">
-        <v>29.51</v>
+        <v>31.342663330000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>62.4</v>
+        <v>122.4</v>
       </c>
       <c r="B4">
-        <v>122.4</v>
+        <v>149.6</v>
       </c>
       <c r="C4">
-        <v>31.342669999999998</v>
+        <v>33.195999999999998</v>
       </c>
       <c r="D4">
-        <v>31.342663330000001</v>
+        <v>28.849588239999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>122.4</v>
+        <v>149.6</v>
       </c>
       <c r="B5">
-        <v>149.6</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="C5">
-        <v>33.195999999999998</v>
+        <v>30.45</v>
       </c>
       <c r="D5">
-        <v>28.849588239999999</v>
+        <v>16.533098590000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>149.6</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>163.80000000000001</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>30.45</v>
+        <v>58.2</v>
       </c>
       <c r="D6">
-        <v>16.533098590000002</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>36</v>
+        <v>46.4</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>47.4</v>
       </c>
       <c r="C7">
-        <v>58.2</v>
+        <v>66.8</v>
       </c>
       <c r="D7">
-        <v>58.2</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>46.4</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>47.4</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>66.8</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>66.8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>68</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="C9">
         <v>81</v>
@@ -533,10 +520,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>78.400000000000006</v>
+        <v>95.2</v>
       </c>
       <c r="B10">
-        <v>79.400000000000006</v>
+        <v>96.2</v>
       </c>
       <c r="C10">
         <v>81</v>
@@ -547,379 +534,365 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>95.2</v>
+        <v>114.4</v>
       </c>
       <c r="B11">
-        <v>96.2</v>
+        <v>115.4</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>66.8</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>114.4</v>
+        <v>128</v>
       </c>
       <c r="B12">
-        <v>115.4</v>
+        <v>129</v>
       </c>
       <c r="C12">
-        <v>66.8</v>
+        <v>60.8</v>
       </c>
       <c r="D12">
-        <v>66.8</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>128</v>
+        <v>-3.6</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>12.8</v>
       </c>
       <c r="C13">
-        <v>60.8</v>
+        <v>4.6460999999999997</v>
       </c>
       <c r="D13">
-        <v>60.8</v>
+        <v>5.1221926829999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-3.6</v>
+        <v>12.8</v>
       </c>
       <c r="B14">
-        <v>12.8</v>
+        <v>31.2</v>
       </c>
       <c r="C14">
-        <v>4.6460999999999997</v>
+        <v>4.1413043480000002</v>
       </c>
       <c r="D14">
-        <v>5.1221926829999997</v>
+        <v>4.1413043480000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B15">
         <v>31.2</v>
       </c>
       <c r="C15">
-        <v>4.1413043480000002</v>
+        <v>13.17</v>
       </c>
       <c r="D15">
-        <v>4.1413043480000002</v>
+        <v>14.0175</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>18.399999999999999</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>31.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C16">
-        <v>13.17</v>
+        <v>6.165</v>
       </c>
       <c r="D16">
-        <v>14.0175</v>
+        <v>11.938448279999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="B17">
-        <v>17.600000000000001</v>
+        <v>164.4</v>
       </c>
       <c r="C17">
-        <v>6.165</v>
+        <v>4.5768000000000004</v>
       </c>
       <c r="D17">
-        <v>11.938448279999999</v>
+        <v>3.3494672809999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>142.69999999999999</v>
+        <v>31.2</v>
       </c>
       <c r="B18">
-        <v>164.4</v>
+        <v>33.6</v>
       </c>
       <c r="C18">
-        <v>4.5768000000000004</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="D18">
-        <v>3.3494672809999999</v>
+        <v>3.8883333329999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>31.2</v>
+        <v>95.2</v>
       </c>
       <c r="B19">
-        <v>33.6</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>1.9450000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="D19">
-        <v>3.8883333329999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>95.2</v>
+        <v>-1.2</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="C20">
-        <v>2.5</v>
+        <v>11.54166667</v>
       </c>
       <c r="D20">
-        <v>2.5</v>
+        <v>11.54166667</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>-1.2</v>
+        <v>2.8</v>
       </c>
       <c r="B21">
-        <v>1.2</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>11.54166667</v>
+        <v>2.7425000000000002</v>
       </c>
       <c r="D21">
-        <v>11.54166667</v>
+        <v>3.1741666670000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2.8</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>28.8</v>
       </c>
       <c r="C22">
-        <v>2.7425000000000002</v>
+        <v>32.36</v>
       </c>
       <c r="D22">
-        <v>3.1741666670000002</v>
+        <v>27.934117650000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>28.8</v>
+        <v>31.2</v>
       </c>
       <c r="C23">
-        <v>32.36</v>
+        <v>26.83</v>
       </c>
       <c r="D23">
-        <v>27.934117650000001</v>
+        <v>25.345862069999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>8</v>
+        <v>12.8</v>
       </c>
       <c r="B24">
         <v>31.2</v>
       </c>
       <c r="C24">
-        <v>26.83</v>
+        <v>11.083</v>
       </c>
       <c r="D24">
-        <v>25.345862069999999</v>
+        <v>19.351782610000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>12.8</v>
+        <v>31.2</v>
       </c>
       <c r="B25">
-        <v>31.2</v>
+        <v>149.6</v>
       </c>
       <c r="C25">
-        <v>11.083</v>
+        <v>1.5631200000000001</v>
       </c>
       <c r="D25">
-        <v>19.351782610000001</v>
+        <v>1.3422854049999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>31.2</v>
+        <v>149.6</v>
       </c>
       <c r="B26">
-        <v>149.6</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="C26">
-        <v>1.5631200000000001</v>
+        <v>11.571</v>
       </c>
       <c r="D26">
-        <v>1.3422854049999999</v>
+        <v>6.5172352939999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>149.6</v>
+        <v>-3.6</v>
       </c>
       <c r="B27">
-        <v>163.19999999999999</v>
+        <v>31.2</v>
       </c>
       <c r="C27">
-        <v>11.571</v>
+        <v>3.3512</v>
       </c>
       <c r="D27">
-        <v>6.5172352939999998</v>
+        <v>1.7637425289999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>-3.6</v>
+        <v>83.8</v>
       </c>
       <c r="B28">
-        <v>31.2</v>
+        <v>87.8</v>
       </c>
       <c r="C28">
-        <v>3.3512</v>
+        <v>5.0990000000000002</v>
       </c>
       <c r="D28">
-        <v>1.7637425289999999</v>
+        <v>3.4009999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>83.8</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="B29">
-        <v>87.8</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="C29">
-        <v>5.0990000000000002</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="D29">
-        <v>3.4009999999999998</v>
+        <v>4.1666666670000003</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>151.80000000000001</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="B30">
-        <v>154.19999999999999</v>
+        <v>129.6</v>
       </c>
       <c r="C30">
-        <v>4.1666666670000003</v>
+        <v>0.32606000000000002</v>
       </c>
       <c r="D30">
-        <v>4.1666666670000003</v>
+        <v>0.25583655199999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>36.799999999999997</v>
+        <v>76.8</v>
       </c>
       <c r="B31">
-        <v>129.6</v>
+        <v>89.6</v>
       </c>
       <c r="C31">
-        <v>0.32606000000000002</v>
+        <v>3.125</v>
       </c>
       <c r="D31">
-        <v>0.25583655199999999</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
+        <v>33.6</v>
+      </c>
+      <c r="B32">
         <v>76.8</v>
       </c>
-      <c r="B32">
-        <v>89.6</v>
-      </c>
       <c r="C32">
-        <v>3.125</v>
+        <v>2.6867000000000001</v>
       </c>
       <c r="D32">
-        <v>3.125</v>
+        <v>2.6373740739999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>33.6</v>
+        <v>89.6</v>
       </c>
       <c r="B33">
-        <v>76.8</v>
+        <v>133.6</v>
       </c>
       <c r="C33">
-        <v>2.6867000000000001</v>
+        <v>2.3258999999999999</v>
       </c>
       <c r="D33">
-        <v>2.6373740739999998</v>
+        <v>1.9922818179999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>89.6</v>
+        <v>-3.68</v>
       </c>
       <c r="B34">
-        <v>133.6</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="C34">
-        <v>2.3258999999999999</v>
+        <v>0.74689000000000005</v>
       </c>
       <c r="D34">
-        <v>1.9922818179999999</v>
+        <v>0.745825548</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>-3.68</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>163.80000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="C35">
-        <v>0.74689000000000005</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="D35">
-        <v>0.745825548</v>
+        <v>1.2817499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
+        <v>5.9</v>
+      </c>
+      <c r="B36">
         <v>8</v>
       </c>
-      <c r="B36">
-        <v>33.6</v>
-      </c>
       <c r="C36">
-        <v>1.0620000000000001</v>
+        <v>9.9523809520000004</v>
       </c>
       <c r="D36">
-        <v>1.2817499999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>5.9</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>9.9523809520000004</v>
-      </c>
-      <c r="D37">
         <v>9.9523809520000004</v>
       </c>
     </row>
